--- a/data/trans_dic/P3A$personadelacasa-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P3A$personadelacasa-Edad-trans_dic.xlsx
@@ -564,13 +564,13 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.7809738673042951</v>
+        <v>0.780973867304295</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>0.7938814054507004</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.7870482624034546</v>
+        <v>0.7870482624034545</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.7092874756659296</v>
+        <v>0.7111741488515795</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.72944305482794</v>
+        <v>0.7332488087511391</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.7356070257607625</v>
+        <v>0.7394000853973803</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.8403426741306208</v>
+        <v>0.8426792604371715</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.8442195784974703</v>
+        <v>0.8421317445017433</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.826084567965756</v>
+        <v>0.8298387045881811</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.3618112791435988</v>
+        <v>0.3622951637452472</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2790008088601489</v>
+        <v>0.272802156838884</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.3302188408537375</v>
+        <v>0.3304593398854627</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.4788203295811043</v>
+        <v>0.4827807616389852</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.3649410780707357</v>
+        <v>0.3606784773705479</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.4053490894880383</v>
+        <v>0.4014233643924395</v>
       </c>
     </row>
     <row r="10">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1608421008103053</v>
+        <v>0.1592996169950363</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1390778937825205</v>
+        <v>0.1388849653584205</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1577421057497348</v>
+        <v>0.1577407949979564</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2284638688242724</v>
+        <v>0.2239813327112962</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1880028981248036</v>
+        <v>0.1898139421630371</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1983438773413754</v>
+        <v>0.1986250589907433</v>
       </c>
     </row>
     <row r="13">
@@ -732,10 +732,10 @@
         <v>0.185028294935637</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.2450670252533715</v>
+        <v>0.2450670252533714</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.2157912892982513</v>
+        <v>0.2157912892982514</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1606870165304319</v>
+        <v>0.1591501368599957</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.220433588501586</v>
+        <v>0.2225165476505853</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.198155986228464</v>
+        <v>0.1970493792486895</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2205342556749744</v>
+        <v>0.2154853402060617</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.269599777799279</v>
+        <v>0.2699123649066551</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2352652302190319</v>
+        <v>0.2347538968323938</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1689305613347792</v>
+        <v>0.1687473130477662</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1411444239421705</v>
+        <v>0.1450798982804974</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1626839018184223</v>
+        <v>0.1621597258656969</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.234165440990205</v>
+        <v>0.2326376259962712</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.185819013212562</v>
+        <v>0.1883248337642117</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2006365278409938</v>
+        <v>0.2018133945820549</v>
       </c>
     </row>
     <row r="19">
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.1049098370824588</v>
+        <v>0.1019101032631073</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.09427456714134222</v>
+        <v>0.09485885563790182</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1054760361364465</v>
+        <v>0.1058107115623751</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.1616616681304027</v>
+        <v>0.1586485541458181</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.1384772364675415</v>
+        <v>0.1398217364531422</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.1416834859268649</v>
+        <v>0.1409117441709744</v>
       </c>
     </row>
     <row r="22">
@@ -897,7 +897,7 @@
         <v>0.1080085188112102</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.1501796300843394</v>
+        <v>0.1501796300843393</v>
       </c>
       <c r="E22" s="5" t="n">
         <v>0.1332961945736052</v>
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.0817888306886547</v>
+        <v>0.07997762736317951</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.126291968004258</v>
+        <v>0.1275834707397912</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1160342302984791</v>
+        <v>0.1151912474104333</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1381037368863129</v>
+        <v>0.1401724353202086</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1768611457663813</v>
+        <v>0.1760614552823932</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1525908021684908</v>
+        <v>0.1529587249268493</v>
       </c>
     </row>
     <row r="25">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.2591995757924219</v>
+        <v>0.2576096285897158</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.2392733741726286</v>
+        <v>0.24073735149216</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.2524493689353373</v>
+        <v>0.2533463970216558</v>
       </c>
     </row>
     <row r="27">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.2947308874621247</v>
+        <v>0.293511964059593</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.2667997688225335</v>
+        <v>0.2687036672757505</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.2760674073636368</v>
+        <v>0.2756879407140926</v>
       </c>
     </row>
     <row r="28">
@@ -1134,13 +1134,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>289242</v>
+        <v>290012</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>264432</v>
+        <v>265811</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>566642</v>
+        <v>569564</v>
       </c>
     </row>
     <row r="7">
@@ -1151,13 +1151,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>342686</v>
+        <v>343639</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>306040</v>
+        <v>305283</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>636337</v>
+        <v>639229</v>
       </c>
     </row>
     <row r="8">
@@ -1206,13 +1206,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>172544</v>
+        <v>172775</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>139984</v>
+        <v>136874</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>323160</v>
+        <v>323395</v>
       </c>
     </row>
     <row r="11">
@@ -1223,13 +1223,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>228345</v>
+        <v>230233</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>183103</v>
+        <v>180964</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>396684</v>
+        <v>392842</v>
       </c>
     </row>
     <row r="12">
@@ -1278,13 +1278,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>99857</v>
+        <v>98899</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>86672</v>
+        <v>86552</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>196236</v>
+        <v>196234</v>
       </c>
     </row>
     <row r="15">
@@ -1295,13 +1295,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>141839</v>
+        <v>139056</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>117162</v>
+        <v>118291</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>246746</v>
+        <v>247095</v>
       </c>
     </row>
     <row r="16">
@@ -1350,13 +1350,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>112580</v>
+        <v>111503</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>162285</v>
+        <v>163819</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>284716</v>
+        <v>283126</v>
       </c>
     </row>
     <row r="19">
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>154510</v>
+        <v>150973</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>198482</v>
+        <v>198712</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>338035</v>
+        <v>337301</v>
       </c>
     </row>
     <row r="20">
@@ -1422,13 +1422,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>102937</v>
+        <v>102826</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>85936</v>
+        <v>88333</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>198182</v>
+        <v>197543</v>
       </c>
     </row>
     <row r="23">
@@ -1439,13 +1439,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>142688</v>
+        <v>141757</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>113137</v>
+        <v>114663</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>244416</v>
+        <v>245849</v>
       </c>
     </row>
     <row r="24">
@@ -1494,13 +1494,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>42592</v>
+        <v>41374</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>41349</v>
+        <v>41605</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>89083</v>
+        <v>89366</v>
       </c>
     </row>
     <row r="27">
@@ -1511,13 +1511,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>65632</v>
+        <v>64409</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>60736</v>
+        <v>61326</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>119664</v>
+        <v>119012</v>
       </c>
     </row>
     <row r="28">
@@ -1566,13 +1566,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>25371</v>
+        <v>24809</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>58676</v>
+        <v>59276</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>89904</v>
+        <v>89251</v>
       </c>
     </row>
     <row r="31">
@@ -1583,13 +1583,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>42840</v>
+        <v>43481</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>82171</v>
+        <v>81800</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>118228</v>
+        <v>118513</v>
       </c>
     </row>
     <row r="32">
@@ -1638,13 +1638,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>915407</v>
+        <v>909792</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>893856</v>
+        <v>899325</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>1834645</v>
+        <v>1841164</v>
       </c>
     </row>
     <row r="35">
@@ -1655,13 +1655,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>1040892</v>
+        <v>1036587</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>996686</v>
+        <v>1003799</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>2006286</v>
+        <v>2003528</v>
       </c>
     </row>
     <row r="36">
